--- a/history/summary.xlsx
+++ b/history/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel.rostov\PycharmProjects\scrapyBotTrade\history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95465E5-3F01-40F1-A0AB-F9E95F4FF849}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0242503-C16A-4908-83C3-C8E1D79BD325}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>date</t>
   </si>
@@ -77,6 +78,9 @@
   </si>
   <si>
     <t>goal more 1%</t>
+  </si>
+  <si>
+    <t>goal more 0,5%</t>
   </si>
 </sst>
 </file>
@@ -134,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -171,7 +175,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -180,7 +227,110 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -190,7 +340,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -199,145 +349,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -353,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,16 +398,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -406,53 +419,56 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -542,6 +558,9 @@
           </cell>
         </row>
         <row r="2">
+          <cell r="U2">
+            <v>72</v>
+          </cell>
           <cell r="Z2">
             <v>12</v>
           </cell>
@@ -571,11 +590,6 @@
         <row r="5">
           <cell r="Z5">
             <v>7</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>71</v>
           </cell>
         </row>
       </sheetData>
@@ -598,6 +612,9 @@
           </cell>
         </row>
         <row r="2">
+          <cell r="U2">
+            <v>64</v>
+          </cell>
           <cell r="Z2">
             <v>9</v>
           </cell>
@@ -627,11 +644,6 @@
         <row r="5">
           <cell r="Z5">
             <v>15</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>63</v>
           </cell>
         </row>
       </sheetData>
@@ -654,6 +666,9 @@
           </cell>
         </row>
         <row r="2">
+          <cell r="U2">
+            <v>115</v>
+          </cell>
           <cell r="Z2">
             <v>13</v>
           </cell>
@@ -685,9 +700,58 @@
             <v>8</v>
           </cell>
         </row>
-        <row r="121">
-          <cell r="A121">
-            <v>114</v>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="Z1">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="U2">
+            <v>130</v>
+          </cell>
+          <cell r="Z2">
+            <v>20</v>
+          </cell>
+          <cell r="AD2">
+            <v>3916.0570000000002</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="J3">
+            <v>44266</v>
+          </cell>
+          <cell r="Z3">
+            <v>23</v>
+          </cell>
+          <cell r="AD3">
+            <v>3981.2008786064389</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="Z4">
+            <v>26</v>
+          </cell>
+          <cell r="AD4">
+            <v>1.6362871553781355E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="AA5">
+            <v>0.23846153846153847</v>
           </cell>
         </row>
       </sheetData>
@@ -959,42 +1023,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Q7"/>
+  <dimension ref="B2:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="23"/>
+      <c r="K3" s="33"/>
       <c r="L3" s="11" t="s">
         <v>9</v>
       </c>
@@ -1011,8 +1076,11 @@
       <c r="Q3" s="14" t="s">
         <v>10</v>
       </c>
+      <c r="R3" s="14" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>[1]Sheet1!$H$3</f>
         <v>44259</v>
@@ -1021,35 +1089,35 @@
         <f>[1]Sheet1!$A$98+1</f>
         <v>92</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="19">
         <f>[1]Sheet1!$V$1</f>
         <v>37</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="25">
         <f>D4/C4</f>
         <v>0.40217391304347827</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="22">
         <f>[1]Sheet1!$V$2</f>
         <v>16</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="25">
         <f>F4/C4</f>
         <v>0.17391304347826086</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="22">
         <f>[1]Sheet1!$V$3</f>
         <v>13</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="25">
         <f>H4/C4</f>
         <v>0.14130434782608695</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="22">
         <f>[1]Sheet1!$V$4</f>
         <v>13</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="27">
         <f>J4/C4</f>
         <v>0.14130434782608695</v>
       </c>
@@ -1074,48 +1142,52 @@
         <v>1.9334248808738463E-2</v>
       </c>
       <c r="Q4" s="18">
-        <f>SUM(D4:H4)/C4</f>
-        <v>0.72365311909262753</v>
+        <f>(D4+F4+H4)/C4</f>
+        <v>0.71739130434782605</v>
+      </c>
+      <c r="R4" s="18">
+        <f>(D4+F4+H4+J4)/C4</f>
+        <v>0.85869565217391308</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f>[2]Sheet1!$K$3</f>
         <v>44260</v>
       </c>
       <c r="C5" s="3">
-        <f>[2]Sheet1!$A$78+1</f>
+        <f>[2]Sheet1!$U$2</f>
         <v>72</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="19">
         <f>[2]Sheet1!$Z$1</f>
         <v>35</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="25">
         <f t="shared" ref="E5:E7" si="0">D5/C5</f>
         <v>0.4861111111111111</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="22">
         <f>[2]Sheet1!$Z$2</f>
         <v>12</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="25">
         <f t="shared" ref="G5:G7" si="1">F5/C5</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="22">
         <f>[2]Sheet1!$Z$3</f>
         <v>11</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="25">
         <f t="shared" ref="I5:I7" si="2">H5/C5</f>
         <v>0.15277777777777779</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="22">
         <f>[2]Sheet1!$Z$4</f>
         <v>7</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="27">
         <f t="shared" ref="K5:K7" si="3">J5/C5</f>
         <v>9.7222222222222224E-2</v>
       </c>
@@ -1140,48 +1212,52 @@
         <v>2.1792590185961025E-2</v>
       </c>
       <c r="Q5" s="18">
-        <f>SUM(D5:H5)/C5</f>
-        <v>0.81462191358024694</v>
+        <f t="shared" ref="Q5:Q8" si="5">(D5+F5+H5)/C5</f>
+        <v>0.80555555555555558</v>
+      </c>
+      <c r="R5" s="18">
+        <f t="shared" ref="R5:R8" si="6">(D5+F5+H5+J5)/C5</f>
+        <v>0.90277777777777779</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f>[3]Sheet1!$K$3</f>
         <v>44264</v>
       </c>
       <c r="C6" s="10">
-        <f>[3]Sheet1!$A$70+1</f>
+        <f>[3]Sheet1!$U$2</f>
         <v>64</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="20">
         <f>[3]Sheet1!$Z$1</f>
         <v>18</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="25">
         <f t="shared" si="0"/>
         <v>0.28125</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="23">
         <f>[3]Sheet1!$Z$2</f>
         <v>9</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="25">
         <f t="shared" si="1"/>
         <v>0.140625</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="23">
         <f>[3]Sheet1!$Z$3</f>
         <v>9</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="25">
         <f t="shared" si="2"/>
         <v>0.140625</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="23">
         <f>[3]Sheet1!$Z$4</f>
         <v>13</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="27">
         <f t="shared" si="3"/>
         <v>0.203125</v>
       </c>
@@ -1206,48 +1282,52 @@
         <v>1.4926587123562984E-2</v>
       </c>
       <c r="Q6" s="18">
-        <f>SUM(D6:H6)/C6</f>
-        <v>0.569091796875</v>
+        <f t="shared" si="5"/>
+        <v>0.5625</v>
+      </c>
+      <c r="R6" s="18">
+        <f t="shared" si="6"/>
+        <v>0.765625</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <f>[4]Sheet1!$J$3</f>
         <v>44265</v>
       </c>
       <c r="C7" s="10">
-        <f>[4]Sheet1!$A$121+1</f>
+        <f>[4]Sheet1!$U$2</f>
         <v>115</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="20">
         <f>[4]Sheet1!$Z$1</f>
         <v>79</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="25">
         <f t="shared" si="0"/>
         <v>0.68695652173913047</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="23">
         <f>[4]Sheet1!$Z$2</f>
         <v>13</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="25">
         <f t="shared" si="1"/>
         <v>0.11304347826086956</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="23">
         <f>[4]Sheet1!$Z$3</f>
         <v>9</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="25">
         <f t="shared" si="2"/>
         <v>7.8260869565217397E-2</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="23">
         <f>[4]Sheet1!$Z$4</f>
         <v>6</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="27">
         <f t="shared" si="3"/>
         <v>5.2173913043478258E-2</v>
       </c>
@@ -1271,14 +1351,91 @@
         <f>[4]Sheet1!$AD$4</f>
         <v>2.663081171603543E-2</v>
       </c>
-      <c r="Q7" s="19">
-        <f>SUM(D7:H7)/C7</f>
-        <v>0.88521739130434784</v>
+      <c r="Q7" s="18">
+        <f t="shared" si="5"/>
+        <v>0.87826086956521743</v>
+      </c>
+      <c r="R7" s="18">
+        <f t="shared" si="6"/>
+        <v>0.93043478260869561</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
+        <f>[5]Sheet1!$J$3</f>
+        <v>44266</v>
+      </c>
+      <c r="C8" s="10">
+        <f>[5]Sheet1!$U$2</f>
+        <v>130</v>
+      </c>
+      <c r="D8" s="21">
+        <f>[5]Sheet1!$Z$1</f>
+        <v>30</v>
+      </c>
+      <c r="E8" s="26">
+        <f t="shared" ref="E8" si="7">D8/C8</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="F8" s="24">
+        <f>[5]Sheet1!$Z$2</f>
+        <v>20</v>
+      </c>
+      <c r="G8" s="26">
+        <f t="shared" ref="G8" si="8">F8/C8</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="H8" s="24">
+        <f>[5]Sheet1!$Z$3</f>
+        <v>23</v>
+      </c>
+      <c r="I8" s="26">
+        <f t="shared" ref="I8" si="9">H8/C8</f>
+        <v>0.17692307692307693</v>
+      </c>
+      <c r="J8" s="24">
+        <f>[5]Sheet1!$Z$4</f>
+        <v>26</v>
+      </c>
+      <c r="K8" s="28">
+        <f t="shared" ref="K8" si="10">J8/C8</f>
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="34">
+        <f>[5]Sheet1!$AA$5</f>
+        <v>0.23846153846153847</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" ref="M8" si="11">L8/C8</f>
+        <v>1.8343195266272191E-3</v>
+      </c>
+      <c r="N8" s="7">
+        <f>[5]Sheet1!$AD$2</f>
+        <v>3916.0570000000002</v>
+      </c>
+      <c r="O8" s="15">
+        <f>[5]Sheet1!$AD$3</f>
+        <v>3981.2008786064389</v>
+      </c>
+      <c r="P8" s="17">
+        <f>[5]Sheet1!$AD$4</f>
+        <v>1.6362871553781355E-2</v>
+      </c>
+      <c r="Q8" s="18">
+        <f t="shared" si="5"/>
+        <v>0.56153846153846154</v>
+      </c>
+      <c r="R8" s="18">
+        <f t="shared" si="6"/>
+        <v>0.7615384615384615</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/history/summary.xlsx
+++ b/history/summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel.rostov\PycharmProjects\scrapyBotTrade\history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0242503-C16A-4908-83C3-C8E1D79BD325}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81852167-EF44-4E42-A8CB-550DD09C6846}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,7 +81,8 @@
     <t>goal more 1%</t>
   </si>
   <si>
-    <t>goal more 0,5%</t>
+    <t>goal 
+more 0,5%</t>
   </si>
 </sst>
 </file>
@@ -138,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -236,13 +238,43 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -251,105 +283,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -366,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -407,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -419,7 +352,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -428,47 +361,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -750,8 +665,62 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="AA5">
-            <v>0.23846153846153847</v>
+          <cell r="Z5">
+            <v>31</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="Z1">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="U2">
+            <v>124</v>
+          </cell>
+          <cell r="Z2">
+            <v>24</v>
+          </cell>
+          <cell r="AD2">
+            <v>3767.6899999999991</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="J3">
+            <v>44267</v>
+          </cell>
+          <cell r="Z3">
+            <v>18</v>
+          </cell>
+          <cell r="AD3">
+            <v>3822.6141464907637</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="Z4">
+            <v>22</v>
+          </cell>
+          <cell r="AD4">
+            <v>1.4368216196025463E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="Z5">
+            <v>30</v>
           </cell>
         </row>
       </sheetData>
@@ -1023,17 +992,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:R8"/>
+  <dimension ref="B2:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="S19" sqref="S19:S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1044,22 +1013,22 @@
       <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="31" t="s">
+      <c r="G3" s="27"/>
+      <c r="H3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="31" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="33"/>
+      <c r="K3" s="28"/>
       <c r="L3" s="11" t="s">
         <v>9</v>
       </c>
@@ -1093,31 +1062,31 @@
         <f>[1]Sheet1!$V$1</f>
         <v>37</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="23">
         <f>D4/C4</f>
         <v>0.40217391304347827</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <f>[1]Sheet1!$V$2</f>
         <v>16</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="23">
         <f>F4/C4</f>
         <v>0.17391304347826086</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="21">
         <f>[1]Sheet1!$V$3</f>
         <v>13</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="23">
         <f>H4/C4</f>
         <v>0.14130434782608695</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="21">
         <f>[1]Sheet1!$V$4</f>
         <v>13</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="24">
         <f>J4/C4</f>
         <v>0.14130434782608695</v>
       </c>
@@ -1163,31 +1132,31 @@
         <f>[2]Sheet1!$Z$1</f>
         <v>35</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="23">
         <f t="shared" ref="E5:E7" si="0">D5/C5</f>
         <v>0.4861111111111111</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <f>[2]Sheet1!$Z$2</f>
         <v>12</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="23">
         <f t="shared" ref="G5:G7" si="1">F5/C5</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <f>[2]Sheet1!$Z$3</f>
         <v>11</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="23">
         <f t="shared" ref="I5:I7" si="2">H5/C5</f>
         <v>0.15277777777777779</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <f>[2]Sheet1!$Z$4</f>
         <v>7</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="24">
         <f t="shared" ref="K5:K7" si="3">J5/C5</f>
         <v>9.7222222222222224E-2</v>
       </c>
@@ -1233,31 +1202,31 @@
         <f>[3]Sheet1!$Z$1</f>
         <v>18</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="23">
         <f t="shared" si="0"/>
         <v>0.28125</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <f>[3]Sheet1!$Z$2</f>
         <v>9</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="23">
         <f t="shared" si="1"/>
         <v>0.140625</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <f>[3]Sheet1!$Z$3</f>
         <v>9</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="23">
         <f t="shared" si="2"/>
         <v>0.140625</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <f>[3]Sheet1!$Z$4</f>
         <v>13</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="24">
         <f t="shared" si="3"/>
         <v>0.203125</v>
       </c>
@@ -1303,31 +1272,31 @@
         <f>[4]Sheet1!$Z$1</f>
         <v>79</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="23">
         <f t="shared" si="0"/>
         <v>0.68695652173913047</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <f>[4]Sheet1!$Z$2</f>
         <v>13</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="23">
         <f t="shared" si="1"/>
         <v>0.11304347826086956</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <f>[4]Sheet1!$Z$3</f>
         <v>9</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="23">
         <f t="shared" si="2"/>
         <v>7.8260869565217397E-2</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="22">
         <f>[4]Sheet1!$Z$4</f>
         <v>6</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="24">
         <f t="shared" si="3"/>
         <v>5.2173913043478258E-2</v>
       </c>
@@ -1360,7 +1329,7 @@
         <v>0.93043478260869561</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <f>[5]Sheet1!$J$3</f>
         <v>44266</v>
@@ -1369,45 +1338,45 @@
         <f>[5]Sheet1!$U$2</f>
         <v>130</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <f>[5]Sheet1!$Z$1</f>
         <v>30</v>
       </c>
-      <c r="E8" s="26">
-        <f t="shared" ref="E8" si="7">D8/C8</f>
+      <c r="E8" s="23">
+        <f t="shared" ref="E8:E9" si="7">D8/C8</f>
         <v>0.23076923076923078</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="22">
         <f>[5]Sheet1!$Z$2</f>
         <v>20</v>
       </c>
-      <c r="G8" s="26">
-        <f t="shared" ref="G8" si="8">F8/C8</f>
+      <c r="G8" s="23">
+        <f t="shared" ref="G8:G9" si="8">F8/C8</f>
         <v>0.15384615384615385</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="22">
         <f>[5]Sheet1!$Z$3</f>
         <v>23</v>
       </c>
-      <c r="I8" s="26">
-        <f t="shared" ref="I8" si="9">H8/C8</f>
+      <c r="I8" s="23">
+        <f t="shared" ref="I8:I9" si="9">H8/C8</f>
         <v>0.17692307692307693</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="22">
         <f>[5]Sheet1!$Z$4</f>
         <v>26</v>
       </c>
-      <c r="K8" s="28">
-        <f t="shared" ref="K8" si="10">J8/C8</f>
+      <c r="K8" s="24">
+        <f t="shared" ref="K8:K9" si="10">J8/C8</f>
         <v>0.2</v>
       </c>
-      <c r="L8" s="34">
-        <f>[5]Sheet1!$AA$5</f>
+      <c r="L8" s="13">
+        <f>[5]Sheet1!$Z$5</f>
+        <v>31</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" ref="M8:M9" si="11">L8/C8</f>
         <v>0.23846153846153847</v>
-      </c>
-      <c r="M8" s="8">
-        <f t="shared" ref="M8" si="11">L8/C8</f>
-        <v>1.8343195266272191E-3</v>
       </c>
       <c r="N8" s="7">
         <f>[5]Sheet1!$AD$2</f>
@@ -1428,6 +1397,76 @@
       <c r="R8" s="18">
         <f t="shared" si="6"/>
         <v>0.7615384615384615</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <f>[6]Sheet1!$J$3</f>
+        <v>44267</v>
+      </c>
+      <c r="C9" s="10">
+        <f>[6]Sheet1!$U$2</f>
+        <v>124</v>
+      </c>
+      <c r="D9" s="20">
+        <f>[6]Sheet1!$Z$1</f>
+        <v>30</v>
+      </c>
+      <c r="E9" s="23">
+        <f t="shared" ref="E9" si="12">D9/C9</f>
+        <v>0.24193548387096775</v>
+      </c>
+      <c r="F9" s="22">
+        <f>[6]Sheet1!$Z$2</f>
+        <v>24</v>
+      </c>
+      <c r="G9" s="23">
+        <f t="shared" ref="G9" si="13">F9/C9</f>
+        <v>0.19354838709677419</v>
+      </c>
+      <c r="H9" s="22">
+        <f>[6]Sheet1!$Z$3</f>
+        <v>18</v>
+      </c>
+      <c r="I9" s="23">
+        <f t="shared" ref="I9" si="14">H9/C9</f>
+        <v>0.14516129032258066</v>
+      </c>
+      <c r="J9" s="22">
+        <f>[6]Sheet1!$Z$4</f>
+        <v>22</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" ref="K9" si="15">J9/C9</f>
+        <v>0.17741935483870969</v>
+      </c>
+      <c r="L9" s="13">
+        <f>[6]Sheet1!$Z$5</f>
+        <v>30</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" ref="M9" si="16">L9/C9</f>
+        <v>0.24193548387096775</v>
+      </c>
+      <c r="N9" s="7">
+        <f>[6]Sheet1!$AD$2</f>
+        <v>3767.6899999999991</v>
+      </c>
+      <c r="O9" s="15">
+        <f>[6]Sheet1!$AD$3</f>
+        <v>3822.6141464907637</v>
+      </c>
+      <c r="P9" s="17">
+        <f>[6]Sheet1!$AD$4</f>
+        <v>1.4368216196025463E-2</v>
+      </c>
+      <c r="Q9" s="18">
+        <f t="shared" ref="Q9" si="17">(D9+F9+H9)/C9</f>
+        <v>0.58064516129032262</v>
+      </c>
+      <c r="R9" s="18">
+        <f t="shared" ref="R9" si="18">(D9+F9+H9+J9)/C9</f>
+        <v>0.75806451612903225</v>
       </c>
     </row>
   </sheetData>
